--- a/.vscode/.python/projeto_verifica_CPF/validacao_CPF.xlsx
+++ b/.vscode/.python/projeto_verifica_CPF/validacao_CPF.xlsx
@@ -1,63 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Myrath\Desktop\Projetos_VSCode\.vscode\.python\projeto_verifica_rg\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>CPF</t>
-  </si>
-  <si>
-    <t>Vencimento</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -91,25 +68,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -222,40 +258,1754 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col width="20.28515625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="14.140625" customWidth="1" style="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1" ht="13.5" customHeight="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>CPF</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Vencimento</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Luigi Barros</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>179.432.680-48</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CPF Inválido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Carlos Eduardo Santos</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>231.659.708-40</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Dr. Felipe Farias</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>487.039.126-04</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Noah da Mota</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>472.963.815-80</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CPF Inválido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Stella da Luz</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>821.074.653-71</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Elisa da Cunha</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>281.597.640-49</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rodrigo Fernandes</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>358.170.962-72</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CPF Inválido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Dra. Alícia Monteiro</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>098.132.475-41</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Eduardo Farias</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>203.546.178-22</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CPF Inválido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dr. Gustavo Costa</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>916.253.408-42</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Sarah Fogaça</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>197.382.460-40</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Thomas Costa</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>732.481.056-07</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>João Felipe Aragão</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>839.140.256-89</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Dra. Nina Caldeira</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>903.158.764-84</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Pietra Correia</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>392.104.568-15</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Enzo Gabriel Lima</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>185.603.294-98</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Bianca Azevedo</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>143.789.560-39</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fernanda Martins</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>852.436.970-10</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Eduardo Novaes</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>382.567.490-82</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CPF Inválido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Luiz Miguel Rodrigues</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>903.468.752-00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Alexandre Ramos</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>370.549.268-38</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Danilo Peixoto</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>379.681.520-03</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Maria Eduarda Barbosa</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>068.719.435-01</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Luiza Teixeira</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>394.275.610-25</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sr. Gabriel Ramos</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>467.831.950-66</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Theo Oliveira</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>407.856.913-75</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Levi Caldeira</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>427.839.561-28</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sr. Francisco Moura</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>912.045.687-58</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Miguel Carvalho</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>497.102.653-34</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Lorena Gomes</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>324.071.596-16</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Vitória Aragão</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>146.723.805-80</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>João Guilherme Costela</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>865.493.107-84</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guilherme da Rocha</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>921.057.386-21</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Raquel Nascimento</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>924.783.506-29</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mariana Carvalho</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>326.081.957-68</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Laura Ramos</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>052.163.874-71</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Davi da Cunha</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>425.068.197-11</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Ana Beatriz Sales</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>694.830.271-87</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Melissa Silva</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>726.135.094-06</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Vitor Hugo Duarte</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>543.712.986-64</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Dr. Davi Fogaça</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>328.105.497-88</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Marcela Moura</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>790.456.218-94</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Nina Gomes</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>746.298.301-03</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Maria Julia Dias</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>461.820.953-41</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CPF Inválido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Danilo Duarte</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>930.126.874-40</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Kevin Santos</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>107.483.259-05</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Rebeca Moraes</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>496.321.057-65</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CPF Inválido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Enzo Costela</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>835.742.961-00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Joaquim Viana</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>318.742.095-88</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Isadora da Rosa</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>546.718.309-57</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Yuri Freitas</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>047.298.165-01</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Sabrina Pires</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>738.916.245-53</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CPF Inválido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Julia Cunha</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>983.641.705-20</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Dra. Maysa Souza</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>257.946.138-82</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Stella da Paz</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>105.934.768-71</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CPF Inválido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Dra. Bruna Rocha</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>910.645.237-06</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Gustavo Silva</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>732.541.609-16</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Isabella Moraes</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>236.981.475-64</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Luiz Fernando Sales</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>867.504.291-49</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Lavínia Costela</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>254.836.719-37</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Dr. Juan Sales</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>463.710.892-69</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Caio Mendes</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>152.480.763-07</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Yuri Vieira</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>931.472.856-00</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Vitor Gabriel Sales</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>132.096.475-37</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CPF Inválido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Amanda Aragão</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>267.458.139-45</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CPF Inválido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Davi Pires</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>480.932.617-96</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Thiago da Paz</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>570.649.381-20</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Nina da Rosa</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>581.209.374-15</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CPF Inválido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Arthur Alves</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>876.510.342-44</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Lorena Moraes</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>248.731.650-08</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Diego Cavalcanti</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>861.403.297-85</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CPF Inválido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Ryan Santos</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>759.012.864-30</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Diogo da Paz</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>735.841.926-19</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CPF Inválido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Olivia Pereira</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>736.184.092-22</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Luiz Gustavo Novaes</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>127.384.065-80</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Leandro Alves</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>947.283.165-64</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Raul Freitas</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>180.459.673-66</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Helena Mendes</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>798.462.510-75</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>CPF Inválido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Alícia Castro</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>326.709.814-96</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Augusto Gomes</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>867.902.431-78</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Pietro Viana</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>853.219.047-23</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Davi Lucas da Paz</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>135.089.726-40</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Ana Carolina Aragão</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>472.689.135-91</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Emilly da Mata</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>310.487.569-39</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Vicente Costela</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>328.059.714-20</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>CPF Inválido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Yuri Rezende</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>203.598.674-46</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CPF Inválido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Olivia Oliveira</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>042.763.518-72</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>CPF Inválido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Dr. Renan Novaes</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>806.217.439-50</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Esther Cavalcanti</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>480.562.937-10</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Dr. Luiz Fernando Fernandes</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>638.907.524-38</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Leandro Viana</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>781.592.046-25</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CPF Inválido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Carolina Cunha</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>094.176.523-70</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Lavínia Duarte</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>582.493.160-74</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>CPF Inválido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Maria Fernanda Costela</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>137.602.459-43</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Luana Viana</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>504.918.276-01</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Dr. João Guilherme Caldeira</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>509.182.637-86</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Maria Vitória Oliveira</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>896.342.157-00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Rodrigo das Neves</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>975.368.041-48</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Maria Alice da Rocha</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>341.286.970-87</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>CPF Válido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Daniel da Mata</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>593.048.762-64</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>CPF Inválido!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048573" ht="12.75" customHeight="1" s="1"/>
+    <row r="1048574" ht="12.75" customHeight="1" s="1"/>
+    <row r="1048575" ht="12.75" customHeight="1" s="1"/>
+    <row r="1048576" ht="12.75" customHeight="1" s="1"/>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>